--- a/DestroyViruses/Assets/Config/ConfigVirus.xlsx
+++ b/DestroyViruses/Assets/Config/ConfigVirus.xlsx
@@ -38,15 +38,64 @@
     <t>virus type</t>
   </si>
   <si>
-    <t>TriangleVirus</t>
-  </si>
-  <si>
-    <t>DodgeVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Variable</t>
+    <t>三角病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸附病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血病毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Virus</t>
     </r>
     <r>
       <rPr>
@@ -57,23 +106,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>peedVirus</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
+      <t>Triangle</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Virus</t>
     </r>
     <r>
       <rPr>
@@ -84,55 +123,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eVirus</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三角病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲避病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变速病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrackVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
+      <t>Dodge</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virus</t>
     </r>
     <r>
       <rPr>
@@ -143,8 +151,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>wallow</t>
-    </r>
+      <t>Cure</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusTrack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -155,32 +174,6 @@
       </rPr>
       <t>Virus</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttachVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸附病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlowDownVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -190,8 +183,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xpand</t>
-    </r>
+      <t>Swallow</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusAttach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusSlower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -202,24 +206,6 @@
       </rPr>
       <t>Virus</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膨胀病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞镖病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DartVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -229,8 +215,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ecover</t>
-    </r>
+      <t>Expand</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusDart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -241,26 +234,25 @@
       </rPr>
       <t>Virus</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再生病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvincibleVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VampireVirus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血病毒</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recover</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusInvincible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusVampire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,7 +613,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,22 +649,22 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -680,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -691,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -702,10 +694,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -713,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -724,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -735,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -746,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -757,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -768,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -779,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -790,10 +782,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -801,10 +793,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
